--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E619545\OneDrive - UCB\Desktop\misc\Harmony\tnd-vaccine-effectiveness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{22416C25-3BEC-4ECC-8D7B-CA2F8AF4542D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51C3F3EE-0889-456E-95D3-9781D2E5DB3E}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{22416C25-3BEC-4ECC-8D7B-CA2F8AF4542D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE38DD16-9292-4013-8210-BD7A28771253}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{481E74A2-2C49-4CE8-8184-A11CCA12FEB2}"/>
+    <workbookView xWindow="1250" yWindow="390" windowWidth="7640" windowHeight="5230" xr2:uid="{481E74A2-2C49-4CE8-8184-A11CCA12FEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="table 3" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D293309F-47FC-4E33-A1E2-6467FC187B61}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,10 +620,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -678,9 +678,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,19 +910,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176B9131-32AF-470D-9E78-4FE881BEE866}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F957FB5E-BE42-4382-BD79-A2F43273DA18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -944,9 +943,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F957FB5E-BE42-4382-BD79-A2F43273DA18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176B9131-32AF-470D-9E78-4FE881BEE866}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>